--- a/biology/Médecine/Charles_Chrétien_Henri_Marc/Charles_Chrétien_Henri_Marc.xlsx
+++ b/biology/Médecine/Charles_Chrétien_Henri_Marc/Charles_Chrétien_Henri_Marc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charles_Chr%C3%A9tien_Henri_Marc</t>
+          <t>Charles_Chrétien_Henri_Marc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Chrétien Henri Marc, né à Amsterdam le 4 novembre 1771 et mort à Paris le 12 janvier 1840, est un psychiatre (expert auprès des tribunaux) français du XIXe siècle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charles_Chr%C3%A9tien_Henri_Marc</t>
+          <t>Charles_Chrétien_Henri_Marc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son père était allemand, sa mère néerlandaise. Il est un neveu du docteur Friedrich Marcus (de)[1],[2],[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son père était allemand, sa mère néerlandaise. Il est un neveu du docteur Friedrich Marcus (de).
 En 1772 ses parents s’installent au Havre et y demeurent jusqu’en 1780. Il arrive à Paris en 1795.
 Lorsque son père meurt, il s’installe définitivement à Paris avec sa mère, il se marie avec Claudine-Éléonore Moreau à Paris le 30 frimaire an VII (20 décembre 1798), et ils ont quatre enfants, ils vivent alors à Gentilly où leurs enfants naissent.
 Il est premier médecin du roi Louis-Philippe en 1830 et est élu membre de l’Académie de Médecine.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charles_Chr%C3%A9tien_Henri_Marc</t>
+          <t>Charles_Chrétien_Henri_Marc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Recherches sur l'emploi du sulfate de fer dans le traitement des fièvres intermittentes, Crochard, Paris, 1810, lire en ligne sur Gallica.
 Instructions relatives au choléra-morbus, [travail confié par la commission centrale de salubrité à une commission composée de MM. Pariset, Esquirol, Marc (rapporteur)], Bohaire, Paris, 1832, lire en ligne sur Gallica.
